--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0F8967-A634-4251-98C3-514625189CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB6641-4AF8-404F-AFF3-93AF5AEA244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="5565" windowWidth="14400" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -1659,7 +1659,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2723,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -2745,7 +2745,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3782,35 +3782,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4098,27 +4069,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4137,4 +4117,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB6641-4AF8-404F-AFF3-93AF5AEA244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70122B-DF7A-41D7-A52E-85B9A18E64D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -1657,8 +1657,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -2743,9 +2743,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3124,13 +3124,13 @@
       </c>
       <c r="C16" s="10">
         <f>SUM(D16:N16)</f>
-        <v>0.10416666666666666</v>
+        <v>0.22222222222222227</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H16" s="6">
         <v>2.0833333333333332E-2</v>
@@ -3157,16 +3157,14 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G17" s="6">
-        <v>6.25E-2</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -3443,7 +3441,7 @@
       </c>
       <c r="C29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -3454,7 +3452,9 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3487,14 +3487,14 @@
       </c>
       <c r="C31" s="10">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F31" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>0.49305555555555558</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6">
@@ -3591,7 +3591,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="K34" s="6">
-        <v>6.25E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="L34" s="6">
         <v>5.5555555555555552E-2</v>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C36" s="29">
         <f t="shared" si="0"/>
-        <v>0.98611111111111094</v>
+        <v>0.92361111111111094</v>
       </c>
       <c r="D36" s="6">
         <v>4.1666666666666664E-2</v>
@@ -3636,7 +3636,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G36" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="H36" s="6">
         <v>4.1666666666666664E-2</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C38" s="34">
         <f>SUM(D38:N38)</f>
-        <v>3.6666666666666661</v>
+        <v>3.6666666666666656</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:N38" si="1">SUM(D6:D37)</f>
@@ -3724,11 +3724,11 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>0.35069444444444448</v>
+        <v>0.30902777777777779</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="1"/>
-        <v>0.35069444444444442</v>
+        <v>0.34375</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="1"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="K38" s="5">
         <f t="shared" si="1"/>
-        <v>0.37152777777777779</v>
+        <v>0.33680555555555552</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="1"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="M38" s="5">
         <f t="shared" si="1"/>
-        <v>0.21180555555555555</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="1"/>
@@ -3782,6 +3782,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4069,36 +4098,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4117,24 +4137,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70122B-DF7A-41D7-A52E-85B9A18E64D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBDF6AC-E82E-4FA3-8352-AA033CE5240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1659,7 +1659,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="D29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2745,7 +2745,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3782,35 +3782,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4098,27 +4069,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4137,4 +4117,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBDF6AC-E82E-4FA3-8352-AA033CE5240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383E3D2-42EB-4325-9B8F-5130BAC6AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -258,6 +258,21 @@
   </si>
   <si>
     <t>S17 : Faire la structure de l'API</t>
+  </si>
+  <si>
+    <t>Livraison planification prévisionnel</t>
+  </si>
+  <si>
+    <t>Livraison base de données</t>
+  </si>
+  <si>
+    <t>Livraison intermediare de la documentation</t>
+  </si>
+  <si>
+    <t>Finalisation de l'application</t>
+  </si>
+  <si>
+    <t>Livraison du projet</t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
     <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="171" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +465,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +729,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1028,7 @@
     <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1120,6 +1149,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="171" fontId="24" fillId="46" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1655,11 +1690,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="D29:M29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1939,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" ref="C10:C37" si="0">SUM(D10:N10)</f>
+        <f t="shared" ref="C10:C42" si="0">SUM(D10:N10)</f>
         <v>0.14583333333333334</v>
       </c>
       <c r="D10" s="6">
@@ -2034,57 +2069,50 @@
     <row r="16" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="10">
-        <f>SUM(D16:N16)</f>
-        <v>0.10416666666666666</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <f>SUM(D17:N17)</f>
+        <v>0.10416666666666666</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>0.10416666666666667</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="30"/>
@@ -2092,34 +2120,43 @@
     <row r="18" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="10">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B19" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="10">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="F19" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2130,44 +2167,34 @@
     <row r="20" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I20" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="30"/>
+      <c r="E20" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2178,11 +2205,11 @@
     <row r="22" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2191,7 +2218,9 @@
       <c r="H22" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2201,7 +2230,7 @@
     <row r="23" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
@@ -2210,13 +2239,13 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6">
+        <v>6.25E-2</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6">
-        <v>6.25E-2</v>
-      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="30"/>
@@ -2224,7 +2253,7 @@
     <row r="24" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="10">
         <f t="shared" si="0"/>
@@ -2234,11 +2263,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -2247,22 +2276,22 @@
     <row r="25" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="6">
+        <v>6.25E-2</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="30"/>
@@ -2270,7 +2299,7 @@
     <row r="26" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
@@ -2282,10 +2311,10 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6">
+      <c r="J26" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="30"/>
@@ -2293,21 +2322,21 @@
     <row r="27" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="I27" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -2316,49 +2345,32 @@
     <row r="28" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="H28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0.10416666666666667</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2367,28 +2379,30 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="42" t="s">
+        <v>38</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -2397,34 +2411,49 @@
     <row r="31" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="10">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F31" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="K31" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="30"/>
     </row>
     <row r="32" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="9"/>
+      <c r="B32" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2439,86 +2468,58 @@
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8">
-        <f>SUM(D33:N33)</f>
-        <v>2.7777777777777783E-2</v>
+      <c r="B33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="F33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="G33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="H33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="I33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="J33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="K33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="L33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="A34" s="3"/>
+      <c r="B34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="10">
         <f t="shared" si="0"/>
-        <v>0.49305555555555558</v>
+        <v>0.125</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="J34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="L34" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="7"/>
+      <c r="B35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2533,179 +2534,313 @@
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="29">
-        <f t="shared" si="0"/>
-        <v>0.98611111111111094</v>
-      </c>
-      <c r="D36" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="B36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8">
+        <f>SUM(D36:N36)</f>
+        <v>2.7777777777777783E-2</v>
+      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="F36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="G36" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="H36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="I36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="J36" s="6">
-        <v>9.0277777777777776E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="K36" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="L36" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="N36" s="30">
-        <v>0.19791666666666666</v>
-      </c>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I37" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J37" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K37" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L37" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="30"/>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="30"/>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="29">
+        <f t="shared" si="0"/>
+        <v>0.98611111111111094</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H39" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J39" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="K39" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="N39" s="30">
+        <v>0.19791666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C42" s="29">
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D42" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N42" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="35" t="s">
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="34">
-        <f>SUM(D38:N38)</f>
+      <c r="C43" s="34">
+        <f>SUM(D43:N43)</f>
         <v>3.6666666666666661</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" ref="D38:N38" si="1">SUM(D6:D37)</f>
+      <c r="D43" s="5">
+        <f t="shared" ref="D43:N43" si="1">SUM(D6:D42)</f>
         <v>0.40972222222222221</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F43" s="5">
         <f t="shared" si="1"/>
         <v>0.35069444444444448</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G43" s="5">
         <f t="shared" si="1"/>
         <v>0.35069444444444442</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H43" s="5">
         <f t="shared" si="1"/>
         <v>0.37152777777777779</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I43" s="5">
         <f t="shared" si="1"/>
         <v>0.35069444444444442</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J43" s="5">
         <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K43" s="5">
         <f t="shared" si="1"/>
         <v>0.37152777777777779</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L43" s="5">
         <f t="shared" si="1"/>
         <v>0.32291666666666669</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M43" s="5">
         <f t="shared" si="1"/>
         <v>0.21180555555555555</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N43" s="5">
         <f t="shared" si="1"/>
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-    </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2716,7 +2851,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
-  <conditionalFormatting sqref="D6:N37">
+  <conditionalFormatting sqref="D6:N42">
     <cfRule type="notContainsBlanks" dxfId="1" priority="10">
       <formula>LEN(TRIM(D6))&gt;0</formula>
     </cfRule>
@@ -2728,10 +2863,10 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="16383" man="1"/>
+    <brk id="44" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="D38 E38:N38" formulaRange="1"/>
+    <ignoredError sqref="D43 E43:N43" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2743,7 +2878,7 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
@@ -3782,6 +3917,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4069,36 +4233,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4117,24 +4272,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383E3D2-42EB-4325-9B8F-5130BAC6AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B989EC-C6E4-41A5-98F5-8842D39B4D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -1133,6 +1133,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="171" fontId="24" fillId="46" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
@@ -1149,12 +1155,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="171" fontId="24" fillId="46" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1692,9 +1692,9 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1711,44 +1711,44 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="6"/>
@@ -2123,7 +2123,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="6"/>
@@ -2379,7 +2379,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="42" t="s">
+      <c r="L29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="6"/>
@@ -2679,7 +2679,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="36" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="6"/>
@@ -2699,13 +2699,13 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="43"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="42" t="s">
+      <c r="N41" s="36" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2878,9 +2878,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2897,44 +2897,44 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C16" s="10">
         <f>SUM(D16:N16)</f>
-        <v>0.22222222222222227</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -3271,14 +3271,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="30"/>
@@ -3330,15 +3326,13 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -3353,7 +3347,7 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3362,9 +3356,7 @@
       <c r="H20" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I20" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3401,14 +3393,14 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3424,7 +3416,7 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -3433,9 +3425,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6">
-        <v>6.25E-2</v>
-      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="30"/>
@@ -3447,7 +3437,7 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3455,9 +3445,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -3470,7 +3458,7 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -3478,7 +3466,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -3493,7 +3481,7 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -3502,9 +3490,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="30"/>
@@ -3516,7 +3502,7 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3524,9 +3510,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3539,7 +3523,7 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6">
@@ -3551,21 +3535,11 @@
       <c r="G28" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="K28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0.10416666666666667</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="30"/>
     </row>
@@ -3576,7 +3550,7 @@
       </c>
       <c r="C29" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -3587,9 +3561,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="M29" s="6"/>
       <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3665,7 +3637,7 @@
       </c>
       <c r="C33" s="8">
         <f>SUM(D33:N33)</f>
-        <v>2.7777777777777783E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6">
@@ -3677,21 +3649,11 @@
       <c r="G33" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="I33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="J33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="K33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="L33" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="30"/>
     </row>
@@ -3704,7 +3666,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>0.45833333333333337</v>
+        <v>0.1875</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6">
@@ -3716,21 +3678,11 @@
       <c r="G34" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="H34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="J34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K34" s="6">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="L34" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="30"/>
     </row>
@@ -3759,7 +3711,7 @@
       </c>
       <c r="C36" s="29">
         <f t="shared" si="0"/>
-        <v>0.92361111111111094</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="D36" s="6">
         <v>4.1666666666666664E-2</v>
@@ -3774,26 +3726,16 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I36" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J36" s="6">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="K36" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="N36" s="30">
-        <v>0.19791666666666666</v>
-      </c>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="30"/>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -3804,7 +3746,7 @@
       </c>
       <c r="C37" s="29">
         <f t="shared" si="0"/>
-        <v>0.14583333333333337</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="D37" s="6">
         <v>6.9444444444444441E-3</v>
@@ -3822,23 +3764,13 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="I37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="J37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="K37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="L37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="M37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="N37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
@@ -3847,7 +3779,7 @@
       </c>
       <c r="C38" s="34">
         <f>SUM(D38:N38)</f>
-        <v>3.6666666666666656</v>
+        <v>2.1770833333333339</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:N38" si="1">SUM(D6:D37)</f>
@@ -3867,31 +3799,31 @@
       </c>
       <c r="H38" s="5">
         <f t="shared" si="1"/>
-        <v>0.37152777777777779</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="1"/>
-        <v>0.35069444444444442</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="1"/>
-        <v>0.3576388888888889</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="1"/>
-        <v>0.33680555555555552</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="1"/>
-        <v>0.32291666666666669</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="1"/>
-        <v>0.2951388888888889</v>
+        <v>0</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="1"/>
-        <v>0.21180555555555555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3917,35 +3849,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4233,27 +4136,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4272,4 +4184,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B989EC-C6E4-41A5-98F5-8842D39B4D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BDC8C-E646-43AE-955D-0ED23666252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -1692,9 +1692,9 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:H24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2878,7 +2878,7 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
@@ -3849,6 +3849,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4136,36 +4165,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4184,24 +4204,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BDC8C-E646-43AE-955D-0ED23666252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFD26D-FD60-4209-A72F-783B1A4F4727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -1693,8 +1693,8 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2878,9 +2878,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C7" s="15">
         <f>SUM(D7:N7)</f>
-        <v>0.1875</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="D7" s="6">
         <v>2.0833333333333332E-2</v>
@@ -3062,15 +3062,11 @@
       <c r="I7" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J7" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="L7" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="30"/>
     </row>
@@ -3259,7 +3255,7 @@
       </c>
       <c r="C16" s="10">
         <f>SUM(D16:N16)</f>
-        <v>0.3263888888888889</v>
+        <v>0.36805555555555552</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -3271,10 +3267,12 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I16" s="6">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="30"/>
@@ -3347,7 +3345,7 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3358,7 +3356,9 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="K20" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="30"/>
@@ -3393,14 +3393,14 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -3424,7 +3424,9 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3437,7 +3439,7 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3445,7 +3447,9 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -3481,7 +3485,7 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -3490,7 +3494,9 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="6">
+        <v>6.25E-2</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="30"/>
@@ -3502,7 +3508,7 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3510,7 +3516,9 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3637,7 +3645,7 @@
       </c>
       <c r="C33" s="8">
         <f>SUM(D33:N33)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>2.4305555555555559E-2</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6">
@@ -3649,10 +3657,18 @@
       <c r="G33" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="H33" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I33" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J33" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K33" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="30"/>
@@ -3666,7 +3682,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6">
@@ -3678,10 +3694,18 @@
       <c r="G34" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="H34" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J34" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K34" s="6">
+        <v>6.25E-2</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="30"/>
@@ -3711,7 +3735,7 @@
       </c>
       <c r="C36" s="29">
         <f t="shared" si="0"/>
-        <v>0.25694444444444448</v>
+        <v>0.50694444444444453</v>
       </c>
       <c r="D36" s="6">
         <v>4.1666666666666664E-2</v>
@@ -3731,8 +3755,12 @@
       <c r="I36" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="J36" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K36" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="30"/>
@@ -3746,7 +3774,7 @@
       </c>
       <c r="C37" s="29">
         <f t="shared" si="0"/>
-        <v>6.9444444444444448E-2</v>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="D37" s="6">
         <v>6.9444444444444441E-3</v>
@@ -3766,8 +3794,12 @@
       <c r="I37" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="J37" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="K37" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -3779,7 +3811,7 @@
       </c>
       <c r="C38" s="34">
         <f>SUM(D38:N38)</f>
-        <v>2.1770833333333339</v>
+        <v>2.8506944444444438</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:N38" si="1">SUM(D6:D37)</f>
@@ -3799,23 +3831,23 @@
       </c>
       <c r="H38" s="5">
         <f t="shared" si="1"/>
-        <v>0.34722222222222221</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="1"/>
-        <v>0.34722222222222221</v>
+        <v>0.35069444444444448</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.36458333333333326</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.36458333333333326</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="1"/>
@@ -3849,35 +3881,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4165,27 +4168,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4204,4 +4216,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAFD26D-FD60-4209-A72F-783B1A4F4727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9630A4B-C2EB-4B74-A793-ACD8D589DDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Livraison du projet</t>
+  </si>
+  <si>
+    <t>Planning effectif</t>
   </si>
 </sst>
 </file>
@@ -1692,9 +1695,9 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2878,9 +2881,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="40"/>
@@ -3531,7 +3534,7 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6">
@@ -3547,7 +3550,9 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="30"/>
     </row>
@@ -3735,7 +3740,7 @@
       </c>
       <c r="C36" s="29">
         <f t="shared" si="0"/>
-        <v>0.50694444444444453</v>
+        <v>1.2569444444444446</v>
       </c>
       <c r="D36" s="6">
         <v>4.1666666666666664E-2</v>
@@ -3761,9 +3766,15 @@
       <c r="K36" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="30"/>
+      <c r="L36" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -3774,7 +3785,7 @@
       </c>
       <c r="C37" s="29">
         <f t="shared" si="0"/>
-        <v>8.3333333333333343E-2</v>
+        <v>9.3750000000000014E-2</v>
       </c>
       <c r="D37" s="6">
         <v>6.9444444444444441E-3</v>
@@ -3800,9 +3811,15 @@
       <c r="K37" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="L37" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M37" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N37" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
@@ -3811,7 +3828,7 @@
       </c>
       <c r="C38" s="34">
         <f>SUM(D38:N38)</f>
-        <v>2.8506944444444438</v>
+        <v>3.7152777777777772</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:N38" si="1">SUM(D6:D37)</f>
@@ -3847,15 +3864,15 @@
       </c>
       <c r="L38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9630A4B-C2EB-4B74-A793-ACD8D589DDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AADA85F-16F2-4F76-B451-8E423FB9093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="Semaine_Affichage">'Planning prévisionnel'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -1031,7 +1032,7 @@
     <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,6 +1159,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="171" fontId="2" fillId="46" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1695,9 +1699,9 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2215,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:N22)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D22" s="6"/>
@@ -2879,11 +2883,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3124,7 +3128,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" ref="C10:C37" si="0">SUM(D10:N10)</f>
+        <f t="shared" ref="C10:C36" si="0">SUM(D10:N10)</f>
         <v>0.14583333333333334</v>
       </c>
       <c r="D10" s="6">
@@ -3256,7 +3260,7 @@
       <c r="B16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="44">
         <f>SUM(D16:N16)</f>
         <v>0.36805555555555552</v>
       </c>
@@ -3323,20 +3327,24 @@
     <row r="19" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="30"/>
@@ -3344,24 +3352,22 @@
     <row r="20" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="G20" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="30"/>
@@ -3369,19 +3375,19 @@
     <row r="21" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3392,21 +3398,21 @@
     <row r="22" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -3415,7 +3421,7 @@
     <row r="23" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
@@ -3438,21 +3444,21 @@
     <row r="24" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="10">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="I24" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -3461,22 +3467,22 @@
     <row r="25" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6">
-        <v>0.125</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="6">
+        <v>6.25E-2</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="30"/>
@@ -3484,11 +3490,11 @@
     <row r="26" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -3496,10 +3502,10 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6">
-        <v>6.25E-2</v>
-      </c>
+      <c r="J26" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="30"/>
@@ -3507,66 +3513,66 @@
     <row r="27" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G28" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6">
-        <v>0.10416666666666667</v>
-      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -3580,17 +3586,19 @@
     <row r="30" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -3602,20 +3610,13 @@
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="10">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="B31" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -3627,250 +3628,232 @@
     </row>
     <row r="32" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="9"/>
+      <c r="B32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <f>SUM(D32:N32)</f>
+        <v>2.4305555555555559E-2</v>
+      </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="E32" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I32" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J32" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K32" s="6">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="30"/>
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B33" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="8">
-        <f>SUM(D33:N33)</f>
-        <v>2.4305555555555559E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F33" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G33" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H33" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I33" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J33" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K33" s="6">
-        <v>3.472222222222222E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="8">
-        <f t="shared" si="0"/>
-        <v>0.39583333333333331</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J34" s="6">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K34" s="6">
-        <v>6.25E-2</v>
-      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="30"/>
+      <c r="B35" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="44">
+        <f t="shared" si="0"/>
+        <v>1.2569444444444446</v>
+      </c>
+      <c r="D35" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H35" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K35" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B36" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="29">
         <f t="shared" si="0"/>
-        <v>1.2569444444444446</v>
+        <v>9.3750000000000014E-2</v>
       </c>
       <c r="D36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F36" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="G36" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="H36" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I36" s="6">
-        <v>2.7777777777777776E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="J36" s="6">
-        <v>0.16666666666666666</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="K36" s="6">
-        <v>8.3333333333333329E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="L36" s="6">
-        <v>0.25</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="M36" s="6">
-        <v>0.25</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="N36" s="6">
-        <v>0.25</v>
+        <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="29">
-        <f t="shared" si="0"/>
-        <v>9.3750000000000014E-2</v>
-      </c>
-      <c r="D37" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="G37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="I37" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="J37" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="K37" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="L37" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="M37" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="N37" s="6">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="35" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="34">
-        <f>SUM(D38:N38)</f>
+      <c r="C37" s="34">
+        <f>SUM(D37:N37)</f>
         <v>3.7152777777777772</v>
       </c>
-      <c r="D38" s="5">
-        <f t="shared" ref="D38:N38" si="1">SUM(D6:D37)</f>
+      <c r="D37" s="5">
+        <f t="shared" ref="D37:N37" si="1">SUM(D6:D36)</f>
         <v>0.40972222222222221</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F37" s="5">
         <f t="shared" si="1"/>
         <v>0.30902777777777779</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G37" s="5">
         <f t="shared" si="1"/>
         <v>0.34375</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H37" s="5">
         <f t="shared" si="1"/>
         <v>0.35069444444444442</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I37" s="5">
         <f t="shared" si="1"/>
         <v>0.35069444444444448</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J37" s="5">
         <f t="shared" si="1"/>
         <v>0.36458333333333326</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K37" s="5">
         <f t="shared" si="1"/>
         <v>0.36458333333333326</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L37" s="5">
         <f t="shared" si="1"/>
         <v>0.3576388888888889</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M37" s="5">
         <f t="shared" si="1"/>
         <v>0.25347222222222221</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N37" s="5">
         <f t="shared" si="1"/>
         <v>0.25347222222222221</v>
       </c>
@@ -3883,7 +3866,7 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:N37">
+  <conditionalFormatting sqref="D6:N36">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(D6))&gt;0</formula>
     </cfRule>
@@ -3898,6 +3881,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4185,36 +4197,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4233,24 +4236,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AADA85F-16F2-4F76-B451-8E423FB9093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB15A5-764E-46E4-817D-C27E9CAC3C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning prévisionnel" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="Semaine_Affichage">'Planning prévisionnel'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1143,6 +1142,9 @@
     <xf numFmtId="171" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="2" fillId="46" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
@@ -1159,9 +1161,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="171" fontId="2" fillId="46" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1700,8 +1699,8 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1718,44 +1717,44 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
@@ -2886,8 +2885,8 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2904,44 +2903,44 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
@@ -3260,7 +3259,7 @@
       <c r="B16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="38">
         <f>SUM(D16:N16)</f>
         <v>0.36805555555555552</v>
       </c>
@@ -3423,7 +3422,7 @@
       <c r="B23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="38">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3721,7 +3720,7 @@
       <c r="B35" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="38">
         <f t="shared" si="0"/>
         <v>1.2569444444444446</v>
       </c>
@@ -3881,35 +3880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4197,27 +4167,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4236,4 +4215,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>